--- a/output1.xlsx
+++ b/output1.xlsx
@@ -540,7 +540,9 @@
         </is>
       </c>
       <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="inlineStr"/>
+      <c r="C9" s="3" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
@@ -604,7 +606,9 @@
         </is>
       </c>
       <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="inlineStr"/>
+      <c r="C15" s="3" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
@@ -668,7 +672,9 @@
         </is>
       </c>
       <c r="B21" s="3" t="n"/>
-      <c r="C21" s="3" t="inlineStr"/>
+      <c r="C21" s="3" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
@@ -710,7 +716,9 @@
         </is>
       </c>
       <c r="B25" s="3" t="n"/>
-      <c r="C25" s="3" t="inlineStr"/>
+      <c r="C25" s="3" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
@@ -752,7 +760,9 @@
         </is>
       </c>
       <c r="B29" s="3" t="n"/>
-      <c r="C29" s="3" t="inlineStr"/>
+      <c r="C29" s="3" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
@@ -794,7 +804,9 @@
         </is>
       </c>
       <c r="B33" s="3" t="n"/>
-      <c r="C33" s="3" t="inlineStr"/>
+      <c r="C33" s="3" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
@@ -836,7 +848,9 @@
         </is>
       </c>
       <c r="B37" s="3" t="n"/>
-      <c r="C37" s="3" t="inlineStr"/>
+      <c r="C37" s="3" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
@@ -878,7 +892,9 @@
         </is>
       </c>
       <c r="B41" s="3" t="n"/>
-      <c r="C41" s="3" t="inlineStr"/>
+      <c r="C41" s="3" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
@@ -909,7 +925,9 @@
         </is>
       </c>
       <c r="B44" s="3" t="n"/>
-      <c r="C44" s="3" t="inlineStr"/>
+      <c r="C44" s="3" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">

--- a/output1.xlsx
+++ b/output1.xlsx
@@ -29,12 +29,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,7 +61,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -64,6 +70,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -431,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,522 +449,889 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="n">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Block No</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Subject Code</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>NO OF PRESENT STUDENTS (A)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>NO OF ABSENT STUDENTS (B)</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>UFM CASE (C)</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>TOTAL (A + B)</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>SEAT NO OF ABSENT STUDENTS</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>SEAT NO OF UFM CASES</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>EMERGENCY STUDENTS IF ANY</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>BLOCK NO</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>SUBJECT CODE</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
+      <c r="B2" s="3" t="n">
+        <v>3150711</v>
+      </c>
+      <c r="C2" s="3" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr"/>
+      <c r="E2" s="3" t="inlineStr"/>
+      <c r="F2" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3" t="inlineStr"/>
+      <c r="H2" s="3" t="inlineStr"/>
+      <c r="I2" s="3" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>3150711</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr"/>
+      <c r="F3" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr"/>
+      <c r="I3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>3150711</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3" t="inlineStr"/>
+      <c r="H4" s="3" t="inlineStr"/>
+      <c r="I4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>3150711</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="inlineStr"/>
+      <c r="H5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>3150711</v>
       </c>
-      <c r="C6" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
+      <c r="E6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3" t="inlineStr"/>
+      <c r="H6" s="3" t="inlineStr"/>
+      <c r="I6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>3150711</v>
       </c>
-      <c r="C7" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr"/>
+      <c r="E7" s="3" t="inlineStr"/>
+      <c r="F7" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3" t="inlineStr"/>
+      <c r="H7" s="3" t="inlineStr"/>
+      <c r="I7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>3150711</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="4">
+        <f>SUM(C2:C7)</f>
+        <v/>
+      </c>
+      <c r="D8" s="4">
+        <f>SUM(D2:D7)</f>
+        <v/>
+      </c>
+      <c r="E8" s="4">
+        <f>SUM(E2:E7)</f>
+        <v/>
+      </c>
+      <c r="F8" s="4">
+        <f>SUM(F2:F7)</f>
+        <v/>
+      </c>
+      <c r="G8" s="4" t="inlineStr"/>
+      <c r="H8" s="4" t="inlineStr"/>
+      <c r="I8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n">
-        <v>180</v>
-      </c>
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>3150910</v>
+      </c>
+      <c r="C9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr"/>
+      <c r="E9" s="3" t="inlineStr"/>
+      <c r="F9" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3" t="inlineStr"/>
+      <c r="H9" s="3" t="inlineStr"/>
+      <c r="I9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>3150910</v>
       </c>
-      <c r="C10" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C10" s="3" t="inlineStr"/>
+      <c r="D10" s="3" t="inlineStr"/>
+      <c r="E10" s="3" t="inlineStr"/>
+      <c r="F10" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G10" s="3" t="inlineStr"/>
+      <c r="H10" s="3" t="inlineStr"/>
+      <c r="I10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>3150910</v>
       </c>
-      <c r="C11" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C11" s="3" t="inlineStr"/>
+      <c r="D11" s="3" t="inlineStr"/>
+      <c r="E11" s="3" t="inlineStr"/>
+      <c r="F11" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3" t="inlineStr"/>
+      <c r="H11" s="3" t="inlineStr"/>
+      <c r="I11" s="3" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>3150910</v>
       </c>
-      <c r="C12" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C12" s="3" t="inlineStr"/>
+      <c r="D12" s="3" t="inlineStr"/>
+      <c r="E12" s="3" t="inlineStr"/>
+      <c r="F12" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3" t="inlineStr"/>
+      <c r="H12" s="3" t="inlineStr"/>
+      <c r="I12" s="3" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>3150910</v>
       </c>
-      <c r="C13" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C13" s="3" t="inlineStr"/>
+      <c r="D13" s="3" t="inlineStr"/>
+      <c r="E13" s="3" t="inlineStr"/>
+      <c r="F13" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G13" s="3" t="inlineStr"/>
+      <c r="H13" s="3" t="inlineStr"/>
+      <c r="I13" s="3" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>3150910</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="4">
+        <f>SUM(C9:C13)</f>
+        <v/>
+      </c>
+      <c r="D14" s="4">
+        <f>SUM(D9:D13)</f>
+        <v/>
+      </c>
+      <c r="E14" s="4">
+        <f>SUM(E9:E13)</f>
+        <v/>
+      </c>
+      <c r="F14" s="4">
+        <f>SUM(F9:F13)</f>
+        <v/>
+      </c>
+      <c r="G14" s="4" t="inlineStr"/>
+      <c r="H14" s="4" t="inlineStr"/>
+      <c r="I14" s="4" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="n">
-        <v>150</v>
-      </c>
+      <c r="A15" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>3151107</v>
+      </c>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" s="3" t="inlineStr"/>
+      <c r="E15" s="3" t="inlineStr"/>
+      <c r="F15" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G15" s="3" t="inlineStr"/>
+      <c r="H15" s="3" t="inlineStr"/>
+      <c r="I15" s="3" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>3151107</v>
       </c>
-      <c r="C16" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" s="3" t="inlineStr"/>
+      <c r="E16" s="3" t="inlineStr"/>
+      <c r="F16" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G16" s="3" t="inlineStr"/>
+      <c r="H16" s="3" t="inlineStr"/>
+      <c r="I16" s="3" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>3151107</v>
       </c>
-      <c r="C17" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C17" s="3" t="inlineStr"/>
+      <c r="D17" s="3" t="inlineStr"/>
+      <c r="E17" s="3" t="inlineStr"/>
+      <c r="F17" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G17" s="3" t="inlineStr"/>
+      <c r="H17" s="3" t="inlineStr"/>
+      <c r="I17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>3151107</v>
       </c>
-      <c r="C18" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C18" s="3" t="inlineStr"/>
+      <c r="D18" s="3" t="inlineStr"/>
+      <c r="E18" s="3" t="inlineStr"/>
+      <c r="F18" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G18" s="3" t="inlineStr"/>
+      <c r="H18" s="3" t="inlineStr"/>
+      <c r="I18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>3151107</v>
       </c>
-      <c r="C19" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C19" s="3" t="inlineStr"/>
+      <c r="D19" s="3" t="inlineStr"/>
+      <c r="E19" s="3" t="inlineStr"/>
+      <c r="F19" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G19" s="3" t="inlineStr"/>
+      <c r="H19" s="3" t="inlineStr"/>
+      <c r="I19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>3151107</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="4">
+        <f>SUM(C15:C19)</f>
+        <v/>
+      </c>
+      <c r="D20" s="4">
+        <f>SUM(D15:D19)</f>
+        <v/>
+      </c>
+      <c r="E20" s="4">
+        <f>SUM(E15:E19)</f>
+        <v/>
+      </c>
+      <c r="F20" s="4">
+        <f>SUM(F15:F19)</f>
+        <v/>
+      </c>
+      <c r="G20" s="4" t="inlineStr"/>
+      <c r="H20" s="4" t="inlineStr"/>
+      <c r="I20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="n"/>
-      <c r="C21" s="3" t="n">
-        <v>150</v>
-      </c>
+      <c r="A21" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>3151606</v>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
+      <c r="E21" s="3" t="inlineStr"/>
+      <c r="F21" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G21" s="3" t="inlineStr"/>
+      <c r="H21" s="3" t="inlineStr"/>
+      <c r="I21" s="3" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>3151606</v>
       </c>
-      <c r="C22" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C22" s="3" t="inlineStr"/>
+      <c r="D22" s="3" t="inlineStr"/>
+      <c r="E22" s="3" t="inlineStr"/>
+      <c r="F22" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G22" s="3" t="inlineStr"/>
+      <c r="H22" s="3" t="inlineStr"/>
+      <c r="I22" s="3" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>3151606</v>
       </c>
-      <c r="C23" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C23" s="3" t="inlineStr"/>
+      <c r="D23" s="3" t="inlineStr"/>
+      <c r="E23" s="3" t="inlineStr"/>
+      <c r="F23" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G23" s="3" t="inlineStr"/>
+      <c r="H23" s="3" t="inlineStr"/>
+      <c r="I23" s="3" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="B24" s="3" t="n">
-        <v>3151606</v>
-      </c>
-      <c r="C24" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n"/>
+      <c r="C24" s="4">
+        <f>SUM(C21:C23)</f>
+        <v/>
+      </c>
+      <c r="D24" s="4">
+        <f>SUM(D21:D23)</f>
+        <v/>
+      </c>
+      <c r="E24" s="4">
+        <f>SUM(E21:E23)</f>
+        <v/>
+      </c>
+      <c r="F24" s="4">
+        <f>SUM(F21:F23)</f>
+        <v/>
+      </c>
+      <c r="G24" s="4" t="inlineStr"/>
+      <c r="H24" s="4" t="inlineStr"/>
+      <c r="I24" s="4" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="n"/>
-      <c r="C25" s="3" t="n">
-        <v>90</v>
-      </c>
+      <c r="A25" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>3151607</v>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+      <c r="D25" s="3" t="inlineStr"/>
+      <c r="E25" s="3" t="inlineStr"/>
+      <c r="F25" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G25" s="3" t="inlineStr"/>
+      <c r="H25" s="3" t="inlineStr"/>
+      <c r="I25" s="3" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>3151607</v>
       </c>
-      <c r="C26" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C26" s="3" t="inlineStr"/>
+      <c r="D26" s="3" t="inlineStr"/>
+      <c r="E26" s="3" t="inlineStr"/>
+      <c r="F26" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G26" s="3" t="inlineStr"/>
+      <c r="H26" s="3" t="inlineStr"/>
+      <c r="I26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>3151607</v>
       </c>
-      <c r="C27" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr"/>
+      <c r="E27" s="3" t="inlineStr"/>
+      <c r="F27" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G27" s="3" t="inlineStr"/>
+      <c r="H27" s="3" t="inlineStr"/>
+      <c r="I27" s="3" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="B28" s="3" t="n">
-        <v>3151607</v>
-      </c>
-      <c r="C28" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="4">
+        <f>SUM(C25:C27)</f>
+        <v/>
+      </c>
+      <c r="D28" s="4">
+        <f>SUM(D25:D27)</f>
+        <v/>
+      </c>
+      <c r="E28" s="4">
+        <f>SUM(E25:E27)</f>
+        <v/>
+      </c>
+      <c r="F28" s="4">
+        <f>SUM(F25:F27)</f>
+        <v/>
+      </c>
+      <c r="G28" s="4" t="inlineStr"/>
+      <c r="H28" s="4" t="inlineStr"/>
+      <c r="I28" s="4" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="n"/>
-      <c r="C29" s="3" t="n">
-        <v>90</v>
-      </c>
+      <c r="A29" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>3151608</v>
+      </c>
+      <c r="C29" s="3" t="inlineStr"/>
+      <c r="D29" s="3" t="inlineStr"/>
+      <c r="E29" s="3" t="inlineStr"/>
+      <c r="F29" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G29" s="3" t="inlineStr"/>
+      <c r="H29" s="3" t="inlineStr"/>
+      <c r="I29" s="3" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" s="3" t="n">
         <v>3151608</v>
       </c>
-      <c r="C30" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C30" s="3" t="inlineStr"/>
+      <c r="D30" s="3" t="inlineStr"/>
+      <c r="E30" s="3" t="inlineStr"/>
+      <c r="F30" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G30" s="3" t="inlineStr"/>
+      <c r="H30" s="3" t="inlineStr"/>
+      <c r="I30" s="3" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>3151608</v>
       </c>
-      <c r="C31" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+      <c r="D31" s="3" t="inlineStr"/>
+      <c r="E31" s="3" t="inlineStr"/>
+      <c r="F31" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G31" s="3" t="inlineStr"/>
+      <c r="H31" s="3" t="inlineStr"/>
+      <c r="I31" s="3" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="B32" s="3" t="n">
-        <v>3151608</v>
-      </c>
-      <c r="C32" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="n"/>
+      <c r="C32" s="4">
+        <f>SUM(C29:C31)</f>
+        <v/>
+      </c>
+      <c r="D32" s="4">
+        <f>SUM(D29:D31)</f>
+        <v/>
+      </c>
+      <c r="E32" s="4">
+        <f>SUM(E29:E31)</f>
+        <v/>
+      </c>
+      <c r="F32" s="4">
+        <f>SUM(F29:F31)</f>
+        <v/>
+      </c>
+      <c r="G32" s="4" t="inlineStr"/>
+      <c r="H32" s="4" t="inlineStr"/>
+      <c r="I32" s="4" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="n"/>
-      <c r="C33" s="3" t="n">
-        <v>90</v>
-      </c>
+      <c r="A33" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>3151609</v>
+      </c>
+      <c r="C33" s="3" t="inlineStr"/>
+      <c r="D33" s="3" t="inlineStr"/>
+      <c r="E33" s="3" t="inlineStr"/>
+      <c r="F33" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G33" s="3" t="inlineStr"/>
+      <c r="H33" s="3" t="inlineStr"/>
+      <c r="I33" s="3" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>3151609</v>
       </c>
-      <c r="C34" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C34" s="3" t="inlineStr"/>
+      <c r="D34" s="3" t="inlineStr"/>
+      <c r="E34" s="3" t="inlineStr"/>
+      <c r="F34" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G34" s="3" t="inlineStr"/>
+      <c r="H34" s="3" t="inlineStr"/>
+      <c r="I34" s="3" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>3151609</v>
       </c>
-      <c r="C35" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C35" s="3" t="inlineStr"/>
+      <c r="D35" s="3" t="inlineStr"/>
+      <c r="E35" s="3" t="inlineStr"/>
+      <c r="F35" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G35" s="3" t="inlineStr"/>
+      <c r="H35" s="3" t="inlineStr"/>
+      <c r="I35" s="3" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>3151609</v>
-      </c>
-      <c r="C36" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="A36" s="4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="n"/>
+      <c r="C36" s="4">
+        <f>SUM(C33:C35)</f>
+        <v/>
+      </c>
+      <c r="D36" s="4">
+        <f>SUM(D33:D35)</f>
+        <v/>
+      </c>
+      <c r="E36" s="4">
+        <f>SUM(E33:E35)</f>
+        <v/>
+      </c>
+      <c r="F36" s="4">
+        <f>SUM(F33:F35)</f>
+        <v/>
+      </c>
+      <c r="G36" s="4" t="inlineStr"/>
+      <c r="H36" s="4" t="inlineStr"/>
+      <c r="I36" s="4" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B37" s="3" t="n"/>
-      <c r="C37" s="3" t="n">
-        <v>90</v>
-      </c>
+      <c r="A37" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>3151610</v>
+      </c>
+      <c r="C37" s="3" t="inlineStr"/>
+      <c r="D37" s="3" t="inlineStr"/>
+      <c r="E37" s="3" t="inlineStr"/>
+      <c r="F37" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G37" s="3" t="inlineStr"/>
+      <c r="H37" s="3" t="inlineStr"/>
+      <c r="I37" s="3" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B38" s="3" t="n">
         <v>3151610</v>
       </c>
-      <c r="C38" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C38" s="3" t="inlineStr"/>
+      <c r="D38" s="3" t="inlineStr"/>
+      <c r="E38" s="3" t="inlineStr"/>
+      <c r="F38" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G38" s="3" t="inlineStr"/>
+      <c r="H38" s="3" t="inlineStr"/>
+      <c r="I38" s="3" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>3151610</v>
       </c>
-      <c r="C39" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C39" s="3" t="inlineStr"/>
+      <c r="D39" s="3" t="inlineStr"/>
+      <c r="E39" s="3" t="inlineStr"/>
+      <c r="F39" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G39" s="3" t="inlineStr"/>
+      <c r="H39" s="3" t="inlineStr"/>
+      <c r="I39" s="3" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n">
-        <v>31</v>
-      </c>
-      <c r="B40" s="3" t="n">
-        <v>3151610</v>
-      </c>
-      <c r="C40" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="n"/>
+      <c r="C40" s="4">
+        <f>SUM(C37:C39)</f>
+        <v/>
+      </c>
+      <c r="D40" s="4">
+        <f>SUM(D37:D39)</f>
+        <v/>
+      </c>
+      <c r="E40" s="4">
+        <f>SUM(E37:E39)</f>
+        <v/>
+      </c>
+      <c r="F40" s="4">
+        <f>SUM(F37:F39)</f>
+        <v/>
+      </c>
+      <c r="G40" s="4" t="inlineStr"/>
+      <c r="H40" s="4" t="inlineStr"/>
+      <c r="I40" s="4" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B41" s="3" t="n"/>
-      <c r="C41" s="3" t="n">
-        <v>90</v>
-      </c>
+      <c r="A41" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>3152407</v>
+      </c>
+      <c r="C41" s="3" t="inlineStr"/>
+      <c r="D41" s="3" t="inlineStr"/>
+      <c r="E41" s="3" t="inlineStr"/>
+      <c r="F41" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G41" s="3" t="inlineStr"/>
+      <c r="H41" s="3" t="inlineStr"/>
+      <c r="I41" s="3" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B42" s="3" t="n">
         <v>3152407</v>
       </c>
-      <c r="C42" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="C42" s="3" t="inlineStr"/>
+      <c r="D42" s="3" t="inlineStr"/>
+      <c r="E42" s="3" t="inlineStr"/>
+      <c r="F42" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G42" s="3" t="inlineStr"/>
+      <c r="H42" s="3" t="inlineStr"/>
+      <c r="I42" s="3" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n">
-        <v>33</v>
-      </c>
-      <c r="B43" s="3" t="n">
-        <v>3152407</v>
-      </c>
-      <c r="C43" s="3" t="n">
-        <v>30</v>
-      </c>
+      <c r="A43" s="4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="n"/>
+      <c r="C43" s="4">
+        <f>SUM(C41:C42)</f>
+        <v/>
+      </c>
+      <c r="D43" s="4">
+        <f>SUM(D41:D42)</f>
+        <v/>
+      </c>
+      <c r="E43" s="4">
+        <f>SUM(E41:E42)</f>
+        <v/>
+      </c>
+      <c r="F43" s="4">
+        <f>SUM(F41:F42)</f>
+        <v/>
+      </c>
+      <c r="G43" s="4" t="inlineStr"/>
+      <c r="H43" s="4" t="inlineStr"/>
+      <c r="I43" s="4" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="n"/>
-      <c r="C44" s="3" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="C45" s="3">
+      <c r="C44" s="3" t="inlineStr"/>
+      <c r="D44" s="3" t="inlineStr"/>
+      <c r="E44" s="3" t="inlineStr"/>
+      <c r="F44" s="3">
         <f>SUM(F7:F39)</f>
         <v/>
       </c>
+      <c r="G44" s="3" t="inlineStr"/>
+      <c r="H44" s="3" t="inlineStr"/>
+      <c r="I44" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
